--- a/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业年末从业人数.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,545 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.286</v>
+        <v>0.9</v>
       </c>
       <c r="C2" t="n">
-        <v>10.692</v>
+        <v>17.6</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6047</v>
+        <v>13.2</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2168</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1122</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>11.1793</v>
+        <v>15.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7846</v>
+        <v>6.3</v>
       </c>
       <c r="I2" t="n">
-        <v>85.6093</v>
+        <v>137.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4577</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.1182</v>
+        <v>1.1356</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2381</v>
+        <v>18.6825</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3263</v>
+        <v>31.8761</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6305</v>
+        <v>3.2913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1387</v>
+        <v>0.2891</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8236</v>
+        <v>14.5904</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7565</v>
+        <v>8.0749</v>
       </c>
       <c r="I3" t="n">
-        <v>90.9034</v>
+        <v>135.0762</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1386</v>
+        <v>4.0794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.3446</v>
+        <v>0.6515</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3811</v>
+        <v>25.5201</v>
       </c>
       <c r="D4" t="n">
-        <v>19.087</v>
+        <v>27.2687</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8869</v>
+        <v>3.6135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1133</v>
+        <v>0.0859</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3922</v>
+        <v>13.6871</v>
       </c>
       <c r="H4" t="n">
-        <v>6.3477</v>
+        <v>6.7407</v>
       </c>
       <c r="I4" t="n">
-        <v>93.03440000000001</v>
+        <v>138.2943</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8664</v>
+        <v>4.9213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.4936</v>
+        <v>0.6044</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7665</v>
+        <v>22.8</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5988</v>
+        <v>26.287</v>
       </c>
       <c r="E5" t="n">
-        <v>3.1628</v>
+        <v>3.8843</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1087</v>
+        <v>0.1403</v>
       </c>
       <c r="G5" t="n">
-        <v>6.9539</v>
+        <v>13.5184</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8326</v>
+        <v>7.1258</v>
       </c>
       <c r="I5" t="n">
-        <v>105.2291</v>
+        <v>141.544</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2538</v>
+        <v>5.6951</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.253</v>
+        <v>0.6333</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0139</v>
+        <v>23.35</v>
       </c>
       <c r="D6" t="n">
-        <v>11.9307</v>
+        <v>26.3421</v>
       </c>
       <c r="E6" t="n">
-        <v>4.2885</v>
+        <v>3.6648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.546</v>
+        <v>0.0881</v>
       </c>
       <c r="G6" t="n">
-        <v>16.5621</v>
+        <v>12.924</v>
       </c>
       <c r="H6" t="n">
-        <v>8.931100000000001</v>
+        <v>7.3421</v>
       </c>
       <c r="I6" t="n">
-        <v>125.4596</v>
+        <v>138.1418</v>
       </c>
       <c r="J6" t="n">
-        <v>5.322</v>
+        <v>5.7573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.7040999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>17.6</v>
+        <v>24.6122</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2</v>
+        <v>24.9774</v>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>3.486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4</v>
+        <v>0.297</v>
       </c>
       <c r="G7" t="n">
-        <v>15.6</v>
+        <v>13.0185</v>
       </c>
       <c r="H7" t="n">
-        <v>6.3</v>
+        <v>6.8071</v>
       </c>
       <c r="I7" t="n">
-        <v>137.7</v>
+        <v>138.4988</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5.8722</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.1356</v>
+        <v>0.6398</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6825</v>
+        <v>27.2692</v>
       </c>
       <c r="D8" t="n">
-        <v>31.8761</v>
+        <v>21.6531</v>
       </c>
       <c r="E8" t="n">
-        <v>3.2913</v>
+        <v>3.5187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2891</v>
+        <v>0.3437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.5904</v>
+        <v>12.9463</v>
       </c>
       <c r="H8" t="n">
-        <v>8.0749</v>
+        <v>7.9902</v>
       </c>
       <c r="I8" t="n">
-        <v>135.0762</v>
+        <v>134.3825</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0794</v>
+        <v>8.280900000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6515</v>
+        <v>0.792</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5201</v>
+        <v>30.9484</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2687</v>
+        <v>16.6162</v>
       </c>
       <c r="E9" t="n">
-        <v>3.6135</v>
+        <v>3.4788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0859</v>
+        <v>0.3871</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6871</v>
+        <v>13.3407</v>
       </c>
       <c r="H9" t="n">
-        <v>6.7407</v>
+        <v>8.1447</v>
       </c>
       <c r="I9" t="n">
-        <v>138.2943</v>
+        <v>130.1599</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9213</v>
+        <v>8.386799999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6044</v>
+        <v>0.7346</v>
       </c>
       <c r="C10" t="n">
-        <v>22.8</v>
+        <v>35.0264</v>
       </c>
       <c r="D10" t="n">
-        <v>26.287</v>
+        <v>17.3799</v>
       </c>
       <c r="E10" t="n">
-        <v>3.8843</v>
+        <v>3.5727</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1403</v>
+        <v>0.5014</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5184</v>
+        <v>12.7611</v>
       </c>
       <c r="H10" t="n">
-        <v>7.1258</v>
+        <v>14.0532</v>
       </c>
       <c r="I10" t="n">
-        <v>141.544</v>
+        <v>122.9644</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6951</v>
+        <v>9.2667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6333</v>
+        <v>0.7396</v>
       </c>
       <c r="C11" t="n">
-        <v>23.35</v>
+        <v>37.8788</v>
       </c>
       <c r="D11" t="n">
-        <v>26.3421</v>
+        <v>8.5741</v>
       </c>
       <c r="E11" t="n">
-        <v>3.6648</v>
+        <v>4.4787</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0881</v>
+        <v>0.4531</v>
       </c>
       <c r="G11" t="n">
-        <v>12.924</v>
+        <v>11.8389</v>
       </c>
       <c r="H11" t="n">
-        <v>7.3421</v>
+        <v>14.023</v>
       </c>
       <c r="I11" t="n">
-        <v>138.1418</v>
+        <v>120.0636</v>
       </c>
       <c r="J11" t="n">
-        <v>5.7573</v>
+        <v>8.217499999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.7766</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6122</v>
+        <v>43.0716</v>
       </c>
       <c r="D12" t="n">
-        <v>24.9774</v>
+        <v>6.7395</v>
       </c>
       <c r="E12" t="n">
-        <v>3.486</v>
+        <v>3.9968</v>
       </c>
       <c r="F12" t="n">
-        <v>0.297</v>
+        <v>0.19</v>
       </c>
       <c r="G12" t="n">
-        <v>13.0185</v>
+        <v>11.6057</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8071</v>
+        <v>13.7862</v>
       </c>
       <c r="I12" t="n">
-        <v>138.4988</v>
+        <v>114.1869</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8722</v>
+        <v>6.7552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6398</v>
+        <v>0.8169</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2692</v>
+        <v>47.936</v>
       </c>
       <c r="D13" t="n">
-        <v>21.6531</v>
+        <v>6.8172</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5187</v>
+        <v>4.554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3437</v>
+        <v>0.1411</v>
       </c>
       <c r="G13" t="n">
-        <v>12.9463</v>
+        <v>12.1276</v>
       </c>
       <c r="H13" t="n">
-        <v>7.9902</v>
+        <v>13.9024</v>
       </c>
       <c r="I13" t="n">
-        <v>134.3825</v>
+        <v>111.8904</v>
       </c>
       <c r="J13" t="n">
-        <v>8.280900000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.9484</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.6162</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.4788</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3871</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.3407</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.1447</v>
-      </c>
-      <c r="I14" t="n">
-        <v>130.1599</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.386799999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7346</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.0264</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.3799</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.5727</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5014</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.7611</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.0532</v>
-      </c>
-      <c r="I15" t="n">
-        <v>122.9644</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.2667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7396</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37.8788</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.5741</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.4787</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.4531</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.8389</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14.023</v>
-      </c>
-      <c r="I16" t="n">
-        <v>120.0636</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8.217499999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7766</v>
-      </c>
-      <c r="C17" t="n">
-        <v>43.0716</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.7395</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.9968</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11.6057</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13.7862</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114.1869</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.7552</v>
+        <v>6.6445</v>
       </c>
     </row>
   </sheetData>
